--- a/Atas/Ata 22 09 2001.xlsx
+++ b/Atas/Ata 22 09 2001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bandtec\Pesquisa e Inovação\Cultivo Inteligente\cultivo-inteligente\Atas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7E362-0914-4CFD-8363-8E063891550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF65C06-7870-4C3E-8711-63C70EF4E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,13 +96,13 @@
     <t>DATA REALIZADA</t>
   </si>
   <si>
-    <t>MEMBROS QUE FIZERAM</t>
-  </si>
-  <si>
     <t>Recepção e Análise do Sensor DHT11</t>
   </si>
   <si>
     <t>Refatorar o Código do Sensor Para o Projeto</t>
+  </si>
+  <si>
+    <t>MEMBROS RESPONSÁVEIS</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="16">
         <v>44461</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="16">
         <v>44461</v>
